--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Đức</t>
+  </si>
+  <si>
+    <t>Web developer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +363,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>968057988</v>
+      </c>
+      <c r="B2">
+        <v>968057988</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>